--- a/biology/Zoologie/Anyphaena_accentuata/Anyphaena_accentuata.xlsx
+++ b/biology/Zoologie/Anyphaena_accentuata/Anyphaena_accentuata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anyphaena accentuata est une espèce d'araignées aranéomorphes de la famille des Anyphaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anyphaena accentuata est une espèce d'araignées aranéomorphes de la famille des Anyphaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, du Portugal à la Scandinavie et à la Russie, au Moyen-Orient et en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, du Portugal à la Scandinavie et à la Russie, au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 4 à 7 mm et les femelles de 5 à 9 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 4 à 7 mm et les femelles de 5 à 9 mm
 De couleur claire cette espèce présente des chélicères jaunâtres, des dessins sur le céphalothorax et une tache double en forme de chevrons sur l'abdomen (d'où son nom d'araignée Citroën).
 Le mâle ressemble à la femelle mais ses couleurs sont beaucoup plus vives ; ses pattes sont longues, finement annelées, son abdomen plus fin.
 </t>
@@ -575,7 +591,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces araignées vivent dans les arbres et arbustes des bois et forêts jusqu'à la cime des arbres dans le feuillage desquels elles chassent dès le printemps pendant la nuit. Les femelles sont actives jusqu'à l'automne puis se réfugient sous divers abris proches du sol. On peut aussi les trouver sur les orties (Urtica dioica). En été, les mâles lors des parades sexuelles peuvent faire vibrer leur abdomen de façon audible tout en tambourinant à l'aide de leurs pédipalpes sur l'abri de feuilles de la femelle (d'où le nom d'araignée bourdonnante).
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne. Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250.</t>
         </is>
